--- a/ExportacaoVinhosTotais.xlsx
+++ b/ExportacaoVinhosTotais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1471,14 +1471,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Catar</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>13339</v>
+        <v>12625</v>
       </c>
       <c r="D58" t="n">
-        <v>81608</v>
+        <v>50363</v>
       </c>
     </row>
     <row r="59">
@@ -1489,14 +1489,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Vietnã</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>12625</v>
+        <v>9799</v>
       </c>
       <c r="D59" t="n">
-        <v>50363</v>
+        <v>13013</v>
       </c>
     </row>
     <row r="60">
@@ -1507,14 +1507,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Vietnã</t>
+          <t>Grécia</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>9799</v>
+        <v>9480</v>
       </c>
       <c r="D60" t="n">
-        <v>13013</v>
+        <v>26256</v>
       </c>
     </row>
     <row r="61">
@@ -1525,14 +1525,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Grécia</t>
+          <t>Singapura</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9480</v>
+        <v>8826</v>
       </c>
       <c r="D61" t="n">
-        <v>26256</v>
+        <v>29780</v>
       </c>
     </row>
     <row r="62">
@@ -1543,14 +1543,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Singapura</t>
+          <t>Quênia</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>8826</v>
+        <v>8311</v>
       </c>
       <c r="D62" t="n">
-        <v>29780</v>
+        <v>33767</v>
       </c>
     </row>
     <row r="63">
@@ -1561,14 +1561,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Quênia</t>
+          <t>Nova Caledônia</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8311</v>
+        <v>7227</v>
       </c>
       <c r="D63" t="n">
-        <v>33767</v>
+        <v>11924</v>
       </c>
     </row>
     <row r="64">
@@ -1579,14 +1579,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Nova Caledônia</t>
+          <t>Chipre</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>7227</v>
+        <v>6805</v>
       </c>
       <c r="D64" t="n">
-        <v>11924</v>
+        <v>18096</v>
       </c>
     </row>
     <row r="65">
@@ -1597,14 +1597,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Chipre</t>
+          <t>Guiana</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6805</v>
+        <v>6633</v>
       </c>
       <c r="D65" t="n">
-        <v>18096</v>
+        <v>19890</v>
       </c>
     </row>
     <row r="66">
@@ -1615,14 +1615,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Guiana</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6633</v>
+        <v>6326</v>
       </c>
       <c r="D66" t="n">
-        <v>19890</v>
+        <v>43837</v>
       </c>
     </row>
     <row r="67">
@@ -1633,14 +1633,14 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6326</v>
+        <v>5610</v>
       </c>
       <c r="D67" t="n">
-        <v>43837</v>
+        <v>7914</v>
       </c>
     </row>
     <row r="68">
@@ -1651,14 +1651,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Coreia, Republica Sul</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5610</v>
+        <v>3965</v>
       </c>
       <c r="D68" t="n">
-        <v>7914</v>
+        <v>15479</v>
       </c>
     </row>
     <row r="69">
@@ -1669,14 +1669,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Coreia, Republica Sul</t>
+          <t>Equador</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3965</v>
+        <v>3917</v>
       </c>
       <c r="D69" t="n">
-        <v>15479</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="70">
@@ -1687,14 +1687,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Equador</t>
+          <t>Tailândia</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3917</v>
+        <v>2436</v>
       </c>
       <c r="D70" t="n">
-        <v>4037</v>
+        <v>6872</v>
       </c>
     </row>
     <row r="71">
@@ -1705,14 +1705,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Tailândia</t>
+          <t>Antígua e Barbuda</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2436</v>
+        <v>2104</v>
       </c>
       <c r="D71" t="n">
-        <v>6872</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="72">
@@ -1723,14 +1723,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>São Tomé e Príncipe</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2184</v>
+        <v>1945</v>
       </c>
       <c r="D72" t="n">
-        <v>2357</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="73">
@@ -1741,14 +1741,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Antígua e Barbuda</t>
+          <t>Barein</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2104</v>
+        <v>1771</v>
       </c>
       <c r="D73" t="n">
-        <v>7738</v>
+        <v>5855</v>
       </c>
     </row>
     <row r="74">
@@ -1759,788 +1759,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Turquia</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1945</v>
+        <v>1236</v>
       </c>
       <c r="D74" t="n">
-        <v>2857</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Barein</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>1771</v>
-      </c>
-      <c r="D75" t="n">
-        <v>5855</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Camarões</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>1749</v>
-      </c>
-      <c r="D76" t="n">
-        <v>7654</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Aruba</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>1350</v>
-      </c>
-      <c r="D77" t="n">
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Turquia</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>1236</v>
-      </c>
-      <c r="D78" t="n">
         <v>1740</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Trinidade Tobago</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>891</v>
-      </c>
-      <c r="D79" t="n">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Gibraltar</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>792</v>
-      </c>
-      <c r="D80" t="n">
-        <v>2953</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Áustria</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>681</v>
-      </c>
-      <c r="D81" t="n">
-        <v>5432</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Hungria</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>627</v>
-      </c>
-      <c r="D82" t="n">
-        <v>4686</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Barbados</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>615</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2552</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Eslovaca, Republica</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>585</v>
-      </c>
-      <c r="D84" t="n">
-        <v>16063</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Cayman, Ilhas</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>425</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Letônia</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>387</v>
-      </c>
-      <c r="D86" t="n">
-        <v>3723</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Moçambique</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>383</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Congo</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>360</v>
-      </c>
-      <c r="D88" t="n">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Namibia</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>340</v>
-      </c>
-      <c r="D89" t="n">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>318</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Ilha de Man</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>301</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Omã</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>194</v>
-      </c>
-      <c r="D92" t="n">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Irã</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>184</v>
-      </c>
-      <c r="D93" t="n">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>176</v>
-      </c>
-      <c r="D94" t="n">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Bulgária</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>122</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Guiana Francesa</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>112</v>
-      </c>
-      <c r="D96" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Malásia</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>63</v>
-      </c>
-      <c r="D97" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Croácia</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>55</v>
-      </c>
-      <c r="D98" t="n">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Costa Rica</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>55</v>
-      </c>
-      <c r="D99" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>El Salvador</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>55</v>
-      </c>
-      <c r="D100" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Guine Bissau</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>48</v>
-      </c>
-      <c r="D101" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Bósnia-Herzegovina</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>45</v>
-      </c>
-      <c r="D102" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Montenegro</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>32</v>
-      </c>
-      <c r="D103" t="n">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>África do Sul</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>30</v>
-      </c>
-      <c r="D104" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>São Vicente e Granadinas</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>28</v>
-      </c>
-      <c r="D105" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Cocos (Keeling), Ilhas</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>26</v>
-      </c>
-      <c r="D106" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Nicaragua</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>24</v>
-      </c>
-      <c r="D107" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Vanuatu</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>18</v>
-      </c>
-      <c r="D108" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Jordânia</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>12</v>
-      </c>
-      <c r="D109" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>12</v>
-      </c>
-      <c r="D110" t="n">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Afeganistão</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>11</v>
-      </c>
-      <c r="D111" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Suazilândia</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>10</v>
-      </c>
-      <c r="D112" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Comores</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>9</v>
-      </c>
-      <c r="D113" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Belice</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>9</v>
-      </c>
-      <c r="D114" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Mauritânia</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>9</v>
-      </c>
-      <c r="D115" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Indonésia</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>5</v>
-      </c>
-      <c r="D116" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Tuvalu</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>2</v>
-      </c>
-      <c r="D117" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/ExportacaoVinhosTotais.xlsx
+++ b/ExportacaoVinhosTotais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,14 +463,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rússia</t>
+          <t>Paraguai</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39029799</v>
+        <v>29214770</v>
       </c>
       <c r="D2" t="n">
-        <v>25504484</v>
+        <v>38719031</v>
       </c>
     </row>
     <row r="3">
@@ -481,14 +481,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paraguai</t>
+          <t>Estados Unidos</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29214770</v>
+        <v>3563355</v>
       </c>
       <c r="D3" t="n">
-        <v>38719031</v>
+        <v>9684567</v>
       </c>
     </row>
     <row r="4">
@@ -499,14 +499,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>China</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3563355</v>
+        <v>2509458</v>
       </c>
       <c r="D4" t="n">
-        <v>9684567</v>
+        <v>4746525</v>
       </c>
     </row>
     <row r="5">
@@ -517,14 +517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Espanha</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2509458</v>
+        <v>1993000</v>
       </c>
       <c r="D5" t="n">
-        <v>4746525</v>
+        <v>3808552</v>
       </c>
     </row>
     <row r="6">
@@ -535,14 +535,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Espanha</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1993000</v>
+        <v>1791603</v>
       </c>
       <c r="D6" t="n">
-        <v>3808552</v>
+        <v>2327208</v>
       </c>
     </row>
     <row r="7">
@@ -553,14 +553,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Reino Unido</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1791603</v>
+        <v>1239551</v>
       </c>
       <c r="D7" t="n">
-        <v>2327208</v>
+        <v>4711464</v>
       </c>
     </row>
     <row r="8">
@@ -571,14 +571,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Reino Unido</t>
+          <t>Paises Baixos</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1239551</v>
+        <v>1236154</v>
       </c>
       <c r="D8" t="n">
-        <v>4711464</v>
+        <v>3791611</v>
       </c>
     </row>
     <row r="9">
@@ -589,14 +589,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Países Baixos</t>
+          <t>Japão</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1236154</v>
+        <v>1181692</v>
       </c>
       <c r="D9" t="n">
-        <v>3791611</v>
+        <v>2377716</v>
       </c>
     </row>
     <row r="10">
@@ -607,14 +607,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Japão</t>
+          <t>Alemanha</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1181692</v>
+        <v>909051</v>
       </c>
       <c r="D10" t="n">
-        <v>2377716</v>
+        <v>2546394</v>
       </c>
     </row>
     <row r="11">
@@ -625,14 +625,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alemanha, República Democrática</t>
+          <t>Uruguai</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>909051</v>
+        <v>792595</v>
       </c>
       <c r="D11" t="n">
-        <v>2546394</v>
+        <v>1219878</v>
       </c>
     </row>
     <row r="12">
@@ -643,14 +643,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Uruguai</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>792595</v>
+        <v>419586</v>
       </c>
       <c r="D12" t="n">
-        <v>1219878</v>
+        <v>581419</v>
       </c>
     </row>
     <row r="13">
@@ -661,14 +661,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>419586</v>
+        <v>402667</v>
       </c>
       <c r="D13" t="n">
-        <v>581419</v>
+        <v>1395226</v>
       </c>
     </row>
     <row r="14">
@@ -679,14 +679,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>França</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>402667</v>
+        <v>317553</v>
       </c>
       <c r="D14" t="n">
-        <v>1395226</v>
+        <v>720359</v>
       </c>
     </row>
     <row r="15">
@@ -697,14 +697,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>França</t>
+          <t>Antilhas Holandesas</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>317553</v>
+        <v>289471</v>
       </c>
       <c r="D15" t="n">
-        <v>720359</v>
+        <v>466033</v>
       </c>
     </row>
     <row r="16">
@@ -787,14 +787,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Curaçao</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>191119</v>
+        <v>168868</v>
       </c>
       <c r="D20" t="n">
-        <v>320683</v>
+        <v>576189</v>
       </c>
     </row>
     <row r="21">
@@ -805,14 +805,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Nigéria</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>168868</v>
+        <v>161641</v>
       </c>
       <c r="D21" t="n">
-        <v>576189</v>
+        <v>258460</v>
       </c>
     </row>
     <row r="22">
@@ -823,14 +823,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nigéria</t>
+          <t>Polônia</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>161641</v>
+        <v>154475</v>
       </c>
       <c r="D22" t="n">
-        <v>258460</v>
+        <v>611080</v>
       </c>
     </row>
     <row r="23">
@@ -841,14 +841,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Polônia</t>
+          <t>Suíça</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>154475</v>
+        <v>152894</v>
       </c>
       <c r="D23" t="n">
-        <v>611080</v>
+        <v>906264</v>
       </c>
     </row>
     <row r="24">
@@ -859,14 +859,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>152894</v>
+        <v>149132</v>
       </c>
       <c r="D24" t="n">
-        <v>906264</v>
+        <v>453894</v>
       </c>
     </row>
     <row r="25">
@@ -877,14 +877,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hong Kong</t>
+          <t>Gana</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>149132</v>
+        <v>102178</v>
       </c>
       <c r="D25" t="n">
-        <v>453894</v>
+        <v>139681</v>
       </c>
     </row>
     <row r="26">
@@ -895,14 +895,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Gana</t>
+          <t>Suécia</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>102178</v>
+        <v>98535</v>
       </c>
       <c r="D26" t="n">
-        <v>139681</v>
+        <v>348397</v>
       </c>
     </row>
     <row r="27">
@@ -913,14 +913,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Suécia</t>
+          <t>Finlândia</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>98535</v>
+        <v>86763</v>
       </c>
       <c r="D27" t="n">
-        <v>348397</v>
+        <v>537432</v>
       </c>
     </row>
     <row r="28">
@@ -931,14 +931,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Antilhas Holandesas</t>
+          <t>Dinamarca</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>97002</v>
+        <v>78104</v>
       </c>
       <c r="D28" t="n">
-        <v>142915</v>
+        <v>375575</v>
       </c>
     </row>
     <row r="29">
@@ -949,14 +949,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Finlândia</t>
+          <t>Taiwan</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>86763</v>
+        <v>76106</v>
       </c>
       <c r="D29" t="n">
-        <v>537432</v>
+        <v>277050</v>
       </c>
     </row>
     <row r="30">
@@ -967,14 +967,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dinamarca</t>
+          <t>Luxemburgo</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>78104</v>
+        <v>66541</v>
       </c>
       <c r="D30" t="n">
-        <v>375575</v>
+        <v>369934</v>
       </c>
     </row>
     <row r="31">
@@ -985,14 +985,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Taiwan (FORMOSA)</t>
+          <t>Tcheca, República</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>76106</v>
+        <v>66529</v>
       </c>
       <c r="D31" t="n">
-        <v>277050</v>
+        <v>356395</v>
       </c>
     </row>
     <row r="32">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Luxemburgo</t>
+          <t>Panamá</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>66541</v>
+        <v>62156</v>
       </c>
       <c r="D32" t="n">
-        <v>369934</v>
+        <v>162516</v>
       </c>
     </row>
     <row r="33">
@@ -1021,14 +1021,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tcheca, República</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>66529</v>
+        <v>55515</v>
       </c>
       <c r="D33" t="n">
-        <v>356395</v>
+        <v>88828</v>
       </c>
     </row>
     <row r="34">
@@ -1039,14 +1039,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Panamá</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>62156</v>
+        <v>51012</v>
       </c>
       <c r="D34" t="n">
-        <v>162516</v>
+        <v>221684</v>
       </c>
     </row>
     <row r="35">
@@ -1057,14 +1057,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Colômbia</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>55515</v>
+        <v>43886</v>
       </c>
       <c r="D35" t="n">
-        <v>88828</v>
+        <v>88017</v>
       </c>
     </row>
     <row r="36">
@@ -1075,14 +1075,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>Noruega</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>51012</v>
+        <v>34355</v>
       </c>
       <c r="D36" t="n">
-        <v>221684</v>
+        <v>262452</v>
       </c>
     </row>
     <row r="37">
@@ -1093,14 +1093,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Colômbia</t>
+          <t>Marshall, Ilhas</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>43886</v>
+        <v>30353</v>
       </c>
       <c r="D37" t="n">
-        <v>88017</v>
+        <v>87600</v>
       </c>
     </row>
     <row r="38">
@@ -1111,14 +1111,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Noruega</t>
+          <t>Estônia</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>34355</v>
+        <v>30071</v>
       </c>
       <c r="D38" t="n">
-        <v>262452</v>
+        <v>90830</v>
       </c>
     </row>
     <row r="39">
@@ -1129,14 +1129,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Marshall, Ilhas</t>
+          <t>Cingapura</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30353</v>
+        <v>27567</v>
       </c>
       <c r="D39" t="n">
-        <v>87600</v>
+        <v>90610</v>
       </c>
     </row>
     <row r="40">
@@ -1147,14 +1147,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Estônia</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30071</v>
+        <v>27101</v>
       </c>
       <c r="D40" t="n">
-        <v>90830</v>
+        <v>46390</v>
       </c>
     </row>
     <row r="41">
@@ -1165,14 +1165,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Cingapura</t>
+          <t>Libéria</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>27567</v>
+        <v>26953</v>
       </c>
       <c r="D41" t="n">
-        <v>90610</v>
+        <v>98667</v>
       </c>
     </row>
     <row r="42">
@@ -1183,14 +1183,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Itália</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>27101</v>
+        <v>25597</v>
       </c>
       <c r="D42" t="n">
-        <v>46390</v>
+        <v>141298</v>
       </c>
     </row>
     <row r="43">
@@ -1201,14 +1201,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Libéria</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>26953</v>
+        <v>24668</v>
       </c>
       <c r="D43" t="n">
-        <v>98667</v>
+        <v>53789</v>
       </c>
     </row>
     <row r="44">
@@ -1219,14 +1219,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Itália</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25597</v>
+        <v>24367</v>
       </c>
       <c r="D44" t="n">
-        <v>141298</v>
+        <v>35420</v>
       </c>
     </row>
     <row r="45">
@@ -1237,14 +1237,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Serra Leoa</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>24668</v>
+        <v>23884</v>
       </c>
       <c r="D45" t="n">
-        <v>53789</v>
+        <v>41904</v>
       </c>
     </row>
     <row r="46">
@@ -1255,14 +1255,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>24367</v>
+        <v>23205</v>
       </c>
       <c r="D46" t="n">
-        <v>35420</v>
+        <v>70572</v>
       </c>
     </row>
     <row r="47">
@@ -1273,14 +1273,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Serra Leoa</t>
+          <t>Guine Equatorial</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>23884</v>
+        <v>20684</v>
       </c>
       <c r="D47" t="n">
-        <v>41904</v>
+        <v>81903</v>
       </c>
     </row>
     <row r="48">
@@ -1291,14 +1291,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>23205</v>
+        <v>20247</v>
       </c>
       <c r="D48" t="n">
-        <v>70572</v>
+        <v>43189</v>
       </c>
     </row>
     <row r="49">
@@ -1309,14 +1309,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Guine Equatorial</t>
+          <t>Emirados Arabes Unidos</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20684</v>
+        <v>17312</v>
       </c>
       <c r="D49" t="n">
-        <v>81903</v>
+        <v>144843</v>
       </c>
     </row>
     <row r="50">
@@ -1327,14 +1327,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Irlanda</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20247</v>
+        <v>16970</v>
       </c>
       <c r="D50" t="n">
-        <v>43189</v>
+        <v>104717</v>
       </c>
     </row>
     <row r="51">
@@ -1345,14 +1345,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Emirados Arabes Unidos</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17312</v>
+        <v>15399</v>
       </c>
       <c r="D51" t="n">
-        <v>144843</v>
+        <v>37765</v>
       </c>
     </row>
     <row r="52">
@@ -1363,14 +1363,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Irlanda</t>
+          <t>Filipinas</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>16970</v>
+        <v>14222</v>
       </c>
       <c r="D52" t="n">
-        <v>104717</v>
+        <v>31397</v>
       </c>
     </row>
     <row r="53">
@@ -1381,14 +1381,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>15399</v>
+        <v>14222</v>
       </c>
       <c r="D53" t="n">
-        <v>37765</v>
+        <v>50749</v>
       </c>
     </row>
     <row r="54">
@@ -1399,14 +1399,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Filipinas</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>14222</v>
+        <v>14101</v>
       </c>
       <c r="D54" t="n">
-        <v>31397</v>
+        <v>76628</v>
       </c>
     </row>
     <row r="55">
@@ -1417,14 +1417,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Nova Zelândia</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>14222</v>
+        <v>14030</v>
       </c>
       <c r="D55" t="n">
-        <v>50749</v>
+        <v>75209</v>
       </c>
     </row>
     <row r="56">
@@ -1435,14 +1435,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>14101</v>
+        <v>12625</v>
       </c>
       <c r="D56" t="n">
-        <v>76628</v>
+        <v>50363</v>
       </c>
     </row>
     <row r="57">
@@ -1453,14 +1453,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Nova Zelândia</t>
+          <t>Vietnã</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>14030</v>
+        <v>9799</v>
       </c>
       <c r="D57" t="n">
-        <v>75209</v>
+        <v>13013</v>
       </c>
     </row>
     <row r="58">
@@ -1471,14 +1471,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Grécia</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>12625</v>
+        <v>9480</v>
       </c>
       <c r="D58" t="n">
-        <v>50363</v>
+        <v>26256</v>
       </c>
     </row>
     <row r="59">
@@ -1489,14 +1489,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Vietnã</t>
+          <t>Singapura</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>9799</v>
+        <v>8826</v>
       </c>
       <c r="D59" t="n">
-        <v>13013</v>
+        <v>29780</v>
       </c>
     </row>
     <row r="60">
@@ -1507,14 +1507,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Grécia</t>
+          <t>Quênia</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>9480</v>
+        <v>8311</v>
       </c>
       <c r="D60" t="n">
-        <v>26256</v>
+        <v>33767</v>
       </c>
     </row>
     <row r="61">
@@ -1525,14 +1525,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Singapura</t>
+          <t>Nova Caledônia</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8826</v>
+        <v>7227</v>
       </c>
       <c r="D61" t="n">
-        <v>29780</v>
+        <v>11924</v>
       </c>
     </row>
     <row r="62">
@@ -1543,14 +1543,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Quênia</t>
+          <t>Chipre</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>8311</v>
+        <v>6805</v>
       </c>
       <c r="D62" t="n">
-        <v>33767</v>
+        <v>18096</v>
       </c>
     </row>
     <row r="63">
@@ -1561,14 +1561,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nova Caledônia</t>
+          <t>Guiana</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>7227</v>
+        <v>6633</v>
       </c>
       <c r="D63" t="n">
-        <v>11924</v>
+        <v>19890</v>
       </c>
     </row>
     <row r="64">
@@ -1579,14 +1579,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Chipre</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6805</v>
+        <v>6326</v>
       </c>
       <c r="D64" t="n">
-        <v>18096</v>
+        <v>43837</v>
       </c>
     </row>
     <row r="65">
@@ -1597,14 +1597,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Guiana</t>
+          <t>Granada</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6633</v>
+        <v>5610</v>
       </c>
       <c r="D65" t="n">
-        <v>19890</v>
+        <v>7914</v>
       </c>
     </row>
     <row r="66">
@@ -1615,14 +1615,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Coreia do Sul</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6326</v>
+        <v>3965</v>
       </c>
       <c r="D66" t="n">
-        <v>43837</v>
+        <v>15479</v>
       </c>
     </row>
     <row r="67">
@@ -1633,14 +1633,14 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Granada</t>
+          <t>Equador</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5610</v>
+        <v>3917</v>
       </c>
       <c r="D67" t="n">
-        <v>7914</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="68">
@@ -1651,14 +1651,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Coreia, Republica Sul</t>
+          <t>Tailândia</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3965</v>
+        <v>2436</v>
       </c>
       <c r="D68" t="n">
-        <v>15479</v>
+        <v>6872</v>
       </c>
     </row>
     <row r="69">
@@ -1669,14 +1669,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Equador</t>
+          <t>Antígua e Barbuda</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3917</v>
+        <v>2104</v>
       </c>
       <c r="D69" t="n">
-        <v>4037</v>
+        <v>7738</v>
       </c>
     </row>
     <row r="70">
@@ -1687,14 +1687,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Tailândia</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2436</v>
+        <v>1945</v>
       </c>
       <c r="D70" t="n">
-        <v>6872</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="71">
@@ -1705,14 +1705,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Antígua e Barbuda</t>
+          <t>Barein</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2104</v>
+        <v>1771</v>
       </c>
       <c r="D71" t="n">
-        <v>7738</v>
+        <v>5855</v>
       </c>
     </row>
     <row r="72">
@@ -1723,49 +1723,13 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Turquia</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1945</v>
+        <v>1236</v>
       </c>
       <c r="D72" t="n">
-        <v>2857</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Barein</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>1771</v>
-      </c>
-      <c r="D73" t="n">
-        <v>5855</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Turquia</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>1236</v>
-      </c>
-      <c r="D74" t="n">
         <v>1740</v>
       </c>
     </row>
